--- a/test/test_data/item_test.xlsx
+++ b/test/test_data/item_test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thib/Documents/Websites/everlearn/test/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923F8F8-D860-B14C-B11B-FC7ADCE48CCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F48424F-F55B-694A-B453-AD37BE4A9556}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="940" windowWidth="25440" windowHeight="14180" xr2:uid="{6629FD4C-D11A-1948-BB66-09B4D3399736}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{6629FD4C-D11A-1948-BB66-09B4D3399736}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>to be</t>
   </si>
@@ -51,25 +51,22 @@
     <t>http/437</t>
   </si>
   <si>
-    <t>topic_id</t>
-  </si>
-  <si>
-    <t>kind_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>de</t>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PICTURE</t>
+  </si>
+  <si>
+    <t>KIND_ID</t>
+  </si>
+  <si>
+    <t>TOPIC_ID</t>
   </si>
 </sst>
 </file>
@@ -86,11 +83,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -102,7 +98,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,10 +132,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,91 +455,93 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
